--- a/client/public/Sorce/balanceKR.xlsx
+++ b/client/public/Sorce/balanceKR.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>Формирвоание отчета</t>
   </si>
   <si>
-    <t>Период: на 31.01.2025 12:25:14</t>
+    <t>Период: на 01.02.2025 11:35:12</t>
   </si>
   <si>
     <t>Показатели: Свободный остаток(В ед. хранения);</t>
@@ -320,9 +320,6 @@
     <t>Wafers горіх ВКФ 216г /16шт</t>
   </si>
   <si>
-    <t>Wafers горіх ВКФ 72г /22шт AR /</t>
-  </si>
-  <si>
     <t>Wafers горіх ККФ 216г /16шт</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>Wafers лимон ККФ 216г /16шт IL /</t>
   </si>
   <si>
-    <t>Wafers молоко ВКФ 72г /22шт AR /</t>
-  </si>
-  <si>
     <t>Wafers молоко ВКФ 72г /22шт AR /АКЦІЯ</t>
   </si>
   <si>
@@ -803,9 +797,6 @@
     <t>До кави пряжене молоко ВКФ 185г /28шт /АКЦІЯ</t>
   </si>
   <si>
-    <t>До кави пряжене молоко ККФ 370г /24шт</t>
-  </si>
-  <si>
     <t>КРЕКЕР 2 CRACK з молочно-ванільною начинкою ККФ 235г /14шт</t>
   </si>
   <si>
@@ -1059,9 +1050,6 @@
   </si>
   <si>
     <t>Roshen пористий білий ВКФ 80г /20шт FP</t>
-  </si>
-  <si>
-    <t>Roshen пористий БІЛИЙ ВКФ 80г /20шт FP АКЦІЯ Цінова UA</t>
   </si>
   <si>
     <t>Roshen пористий білий ВКФ 80г /20шт UA</t>
@@ -1361,7 +1349,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="C366"/>
+  <dimension ref="C362"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1437,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>342553</v>
+        <v>341801</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true" outlineLevel="1">
@@ -1445,7 +1433,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>29796</v>
+        <v>28870</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true" outlineLevel="2">
@@ -1453,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>8149</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="3">
@@ -1461,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>2137</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="3">
@@ -1469,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>1601</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="3">
@@ -1477,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="n">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="3">
@@ -1485,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="3">
@@ -1493,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="3">
@@ -1501,7 +1489,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="16" t="n">
-        <v>3096</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="2">
@@ -1509,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>4005</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="3">
@@ -1517,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="n">
-        <v>1879</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="3">
@@ -1525,7 +1513,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>991</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="3">
@@ -1533,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="3">
@@ -1541,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="n">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="2">
@@ -1549,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>6751</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="3">
@@ -1557,7 +1545,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="3">
@@ -1565,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="3">
@@ -1573,7 +1561,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="n">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="3">
@@ -1581,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="3">
@@ -1589,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="11" t="n">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="3">
@@ -1605,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="11" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="3">
@@ -1613,7 +1601,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="11" t="n">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="3">
@@ -1629,7 +1617,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="3">
@@ -1637,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="3">
@@ -1645,7 +1633,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="3">
@@ -1653,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>534</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="2">
@@ -1661,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="12" t="n">
-        <v>10891</v>
+        <v>10648</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="3">
@@ -1669,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="3">
@@ -1677,7 +1665,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="11" t="n">
-        <v>799</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="3">
@@ -1685,7 +1673,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="11" t="n">
-        <v>807</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="3">
@@ -1693,7 +1681,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="16" t="n">
-        <v>1217</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="3">
@@ -1701,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="16" t="n">
-        <v>2295</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="3">
@@ -1709,7 +1697,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="3">
@@ -1717,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="3">
@@ -1725,7 +1713,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="16" t="n">
-        <v>1333</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="3">
@@ -1733,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>509</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="3">
@@ -1741,7 +1729,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="16" t="n">
-        <v>1563</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="3">
@@ -1757,7 +1745,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="11" t="n">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="3">
@@ -1765,7 +1753,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
@@ -1773,7 +1761,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="12" t="n">
-        <v>312757</v>
+        <v>312931</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="2">
@@ -1781,7 +1769,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>109560</v>
+        <v>110440</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="3">
@@ -1789,7 +1777,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="16" t="n">
-        <v>19016</v>
+        <v>18966</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true" outlineLevel="3">
@@ -1805,7 +1793,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="16" t="n">
-        <v>10664</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="3">
@@ -1837,7 +1825,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="16" t="n">
-        <v>11842</v>
+        <v>11667</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="3">
@@ -1853,7 +1841,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="16" t="n">
-        <v>14493</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="3">
@@ -1885,7 +1873,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="n">
-        <v>13650</v>
+        <v>13720</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="3">
@@ -1893,7 +1881,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="16" t="n">
-        <v>11095</v>
+        <v>10925</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="2">
@@ -1901,7 +1889,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="12" t="n">
-        <v>3167</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="3">
@@ -1909,7 +1897,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="3">
@@ -1925,7 +1913,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="11" t="n">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="3">
@@ -1933,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="3">
@@ -1941,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="11" t="n">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="3">
@@ -1957,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="3">
@@ -1965,7 +1953,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="3">
@@ -1973,7 +1961,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="3">
@@ -1981,7 +1969,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="3">
@@ -1989,7 +1977,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="2">
@@ -1997,7 +1985,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="12" t="n">
-        <v>12115</v>
+        <v>11345</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="3">
@@ -2005,7 +1993,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="11" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="3">
@@ -2021,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="11" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="3">
@@ -2045,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="3">
@@ -2053,7 +2041,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="16" t="n">
-        <v>2049</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="3">
@@ -2069,7 +2057,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="16" t="n">
-        <v>2896</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="3">
@@ -2085,7 +2073,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="16" t="n">
-        <v>2425</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="3">
@@ -2117,7 +2105,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="3">
@@ -2133,7 +2121,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="3">
@@ -2141,7 +2129,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="3">
@@ -2149,7 +2137,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="3">
@@ -2157,7 +2145,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>22</v>
+        <v>729</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="3">
@@ -2165,7 +2153,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>751</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="3">
@@ -2173,7 +2161,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="3">
@@ -2181,7 +2169,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="11" t="n">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="3">
@@ -2189,7 +2177,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>107</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="3">
@@ -2197,7 +2185,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="n">
-        <v>631</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="3">
@@ -2205,7 +2193,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="3">
@@ -2213,7 +2201,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="3">
@@ -2221,7 +2209,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="3">
@@ -2229,15 +2217,15 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B112" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B112" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="11" t="n">
-        <v>124</v>
+      <c r="C112" s="12" t="n">
+        <v>18600</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="3">
@@ -2245,15 +2233,15 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B114" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B114" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="12" t="n">
-        <v>19482</v>
+      <c r="C114" s="11" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="3">
@@ -2261,7 +2249,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="3">
@@ -2269,7 +2257,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="3">
@@ -2277,7 +2265,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="n">
-        <v>198</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="3">
@@ -2285,7 +2273,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="3">
@@ -2293,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="3">
@@ -2301,7 +2289,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="3">
@@ -2309,7 +2297,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="3">
@@ -2317,7 +2305,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="3">
@@ -2325,7 +2313,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="n">
-        <v>20</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="3">
@@ -2333,7 +2321,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>204</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="3">
@@ -2341,7 +2329,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>616</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="3">
@@ -2349,7 +2337,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="n">
-        <v>616</v>
+        <v>881</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="3">
@@ -2357,7 +2345,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>88</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="3">
@@ -2365,7 +2353,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>917</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="3">
@@ -2373,7 +2361,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="3">
@@ -2381,7 +2369,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>211</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="3">
@@ -2389,7 +2377,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="n">
-        <v>535</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="3">
@@ -2397,7 +2385,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>293</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="3">
@@ -2405,7 +2393,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="3">
@@ -2413,7 +2401,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="3">
@@ -2421,7 +2409,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="11" t="n">
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="3">
@@ -2429,7 +2417,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="11" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="3">
@@ -2437,7 +2425,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>186</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="3">
@@ -2445,15 +2433,15 @@
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="3">
       <c r="B139" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="11" t="n">
-        <v>616</v>
+      <c r="C139" s="16" t="n">
+        <v>1565</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="3">
@@ -2461,15 +2449,15 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="3">
       <c r="B141" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="16" t="n">
-        <v>1565</v>
+      <c r="C141" s="11" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="3">
@@ -2477,7 +2465,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="3">
@@ -2485,7 +2473,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>186</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="3">
@@ -2493,7 +2481,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="3">
@@ -2501,7 +2489,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="11" t="n">
-        <v>628</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="3">
@@ -2509,7 +2497,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>22</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="3">
@@ -2517,7 +2505,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="3">
@@ -2525,7 +2513,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="11" t="n">
-        <v>186</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="3">
@@ -2533,7 +2521,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="11" t="n">
-        <v>355</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="3">
@@ -2541,7 +2529,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>616</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="3">
@@ -2549,7 +2537,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>22</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="3">
@@ -2557,7 +2545,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="11" t="n">
-        <v>212</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="3">
@@ -2565,7 +2553,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="11" t="n">
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="3">
@@ -2573,7 +2561,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="11" t="n">
-        <v>357</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="3">
@@ -2581,7 +2569,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>186</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="3">
@@ -2589,7 +2577,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="11" t="n">
-        <v>62</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="3">
@@ -2597,7 +2585,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="11" t="n">
-        <v>683</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="3">
@@ -2605,7 +2593,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="11" t="n">
-        <v>616</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="3">
@@ -2613,7 +2601,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="11" t="n">
-        <v>25</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="3">
@@ -2621,7 +2609,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="11" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="3">
@@ -2629,7 +2617,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="11" t="n">
-        <v>279</v>
+        <v>837</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="3">
@@ -2637,15 +2625,15 @@
         <v>161</v>
       </c>
       <c r="C162" s="11" t="n">
-        <v>40</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="3">
       <c r="B163" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="11" t="n">
-        <v>881</v>
+      <c r="C163" s="16" t="n">
+        <v>1847</v>
       </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="3">
@@ -2653,15 +2641,15 @@
         <v>163</v>
       </c>
       <c r="C164" s="11" t="n">
-        <v>616</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="3">
       <c r="B165" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="16" t="n">
-        <v>1863</v>
+      <c r="C165" s="11" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="3">
@@ -2669,7 +2657,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="11" t="n">
-        <v>186</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="3">
@@ -2677,15 +2665,15 @@
         <v>166</v>
       </c>
       <c r="C167" s="11" t="n">
-        <v>40</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="3">
       <c r="B168" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="11" t="n">
-        <v>144</v>
+      <c r="C168" s="16" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="3">
@@ -2693,15 +2681,15 @@
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>535</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="3">
       <c r="B170" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="16" t="n">
-        <v>1249</v>
+      <c r="C170" s="11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="3">
@@ -2709,7 +2697,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="11" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="3">
@@ -2717,7 +2705,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="11" t="n">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="3">
@@ -2725,7 +2713,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="11" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="3">
@@ -2733,15 +2721,15 @@
         <v>173</v>
       </c>
       <c r="C174" s="11" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B175" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B175" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="11" t="n">
-        <v>112</v>
+      <c r="C175" s="12" t="n">
+        <v>15123</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="3">
@@ -2749,15 +2737,15 @@
         <v>175</v>
       </c>
       <c r="C176" s="11" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B177" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B177" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="12" t="n">
-        <v>15878</v>
+      <c r="C177" s="11" t="n">
+        <v>726</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="3">
@@ -2765,7 +2753,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="11" t="n">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" ht="11" customHeight="true" outlineLevel="3">
@@ -2773,7 +2761,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="11" t="n">
-        <v>750</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" ht="11" customHeight="true" outlineLevel="3">
@@ -2781,7 +2769,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="11" t="n">
-        <v>106</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="3">
@@ -2789,15 +2777,15 @@
         <v>180</v>
       </c>
       <c r="C181" s="11" t="n">
-        <v>403</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" ht="11" customHeight="true" outlineLevel="3">
       <c r="B182" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="11" t="n">
-        <v>317</v>
+      <c r="C182" s="16" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="3">
@@ -2805,15 +2793,15 @@
         <v>182</v>
       </c>
       <c r="C183" s="11" t="n">
-        <v>323</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="3">
       <c r="B184" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="16" t="n">
-        <v>1402</v>
+      <c r="C184" s="11" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="3">
@@ -2821,7 +2809,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="11" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="3">
@@ -2829,7 +2817,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="11" t="n">
-        <v>192</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="3">
@@ -2837,7 +2825,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="11" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="3">
@@ -2845,7 +2833,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="11" t="n">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="3">
@@ -2853,7 +2841,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="11" t="n">
-        <v>111</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="3">
@@ -2861,7 +2849,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="11" t="n">
-        <v>197</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="3">
@@ -2869,7 +2857,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="11" t="n">
-        <v>501</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="3">
@@ -2877,7 +2865,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="11" t="n">
-        <v>356</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="3">
@@ -2885,7 +2873,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>193</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="3">
@@ -2893,7 +2881,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="11" t="n">
-        <v>259</v>
+        <v>595</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="3">
@@ -2901,7 +2889,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>139</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="3">
@@ -2909,7 +2897,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>611</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="3">
@@ -2917,39 +2905,39 @@
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>346</v>
+        <v>794</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="3">
       <c r="B198" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="11" t="n">
-        <v>587</v>
+      <c r="C198" s="16" t="n">
+        <v>1009</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="3">
       <c r="B199" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="11" t="n">
-        <v>818</v>
+      <c r="C199" s="16" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="3">
       <c r="B200" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="16" t="n">
-        <v>1042</v>
+      <c r="C200" s="11" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="3">
       <c r="B201" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="16" t="n">
-        <v>1132</v>
+      <c r="C201" s="11" t="n">
+        <v>726</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="3">
@@ -2957,7 +2945,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>421</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="3">
@@ -2965,7 +2953,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>756</v>
+        <v>125</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="3">
@@ -2973,7 +2961,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>682</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="3">
@@ -2981,7 +2969,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>125</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="3">
@@ -2989,7 +2977,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>402</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="3">
@@ -2997,7 +2985,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="11" t="n">
-        <v>528</v>
+        <v>676</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="3">
@@ -3005,15 +2993,15 @@
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>329</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="3">
       <c r="B209" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="11" t="n">
-        <v>719</v>
+      <c r="C209" s="16" t="n">
+        <v>1172</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="3">
@@ -3021,15 +3009,15 @@
         <v>209</v>
       </c>
       <c r="C210" s="11" t="n">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="211" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B211" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B211" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="16" t="n">
-        <v>1227</v>
+      <c r="C211" s="12" t="n">
+        <v>2810</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="3">
@@ -3037,15 +3025,15 @@
         <v>211</v>
       </c>
       <c r="C212" s="11" t="n">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B213" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B213" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="12" t="n">
-        <v>2848</v>
+      <c r="C213" s="11" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="3">
@@ -3053,7 +3041,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="11" t="n">
-        <v>162</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="3">
@@ -3061,7 +3049,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="11" t="n">
-        <v>289</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="3">
@@ -3069,7 +3057,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="11" t="n">
-        <v>307</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="3">
@@ -3077,7 +3065,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="11" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="3">
@@ -3085,7 +3073,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="11" t="n">
-        <v>508</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="3">
@@ -3093,7 +3081,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="11" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="3">
@@ -3101,7 +3089,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="3">
@@ -3109,7 +3097,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="11" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="222" ht="11" customHeight="true" outlineLevel="3">
@@ -3117,7 +3105,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>202</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" ht="11" customHeight="true" outlineLevel="3">
@@ -3125,7 +3113,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="11" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="3">
@@ -3133,7 +3121,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>350</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="3">
@@ -3141,7 +3129,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" ht="11" customHeight="true" outlineLevel="3">
@@ -3149,7 +3137,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" ht="11" customHeight="true" outlineLevel="3">
@@ -3157,39 +3145,39 @@
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B228" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B228" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="11" t="n">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C228" s="12" t="n">
+        <v>9307</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="3">
       <c r="B229" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B230" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B230" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="12" t="n">
-        <v>9573</v>
-      </c>
-    </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C230" s="11" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" ht="11" customHeight="true" outlineLevel="3">
       <c r="B231" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232" ht="11" customHeight="true" outlineLevel="3">
@@ -3197,7 +3185,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>109</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" ht="11" customHeight="true" outlineLevel="3">
@@ -3205,7 +3193,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" ht="11" customHeight="true" outlineLevel="3">
@@ -3213,7 +3201,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>232</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" ht="11" customHeight="true" outlineLevel="3">
@@ -3221,7 +3209,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236" ht="11" customHeight="true" outlineLevel="3">
@@ -3229,23 +3217,23 @@
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" ht="22" customHeight="true" outlineLevel="3">
       <c r="B237" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="238" ht="11" customHeight="true" outlineLevel="3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" ht="22" customHeight="true" outlineLevel="3">
       <c r="B238" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>51</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" ht="22" customHeight="true" outlineLevel="3">
@@ -3253,7 +3241,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>396</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" ht="22" customHeight="true" outlineLevel="3">
@@ -3261,7 +3249,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="11" t="n">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" ht="22" customHeight="true" outlineLevel="3">
@@ -3269,7 +3257,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>472</v>
+        <v>288</v>
       </c>
     </row>
     <row r="242" ht="22" customHeight="true" outlineLevel="3">
@@ -3277,7 +3265,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" ht="22" customHeight="true" outlineLevel="3">
@@ -3285,7 +3273,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="11" t="n">
-        <v>288</v>
+        <v>407</v>
       </c>
     </row>
     <row r="244" ht="22" customHeight="true" outlineLevel="3">
@@ -3293,7 +3281,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" ht="22" customHeight="true" outlineLevel="3">
@@ -3301,23 +3289,23 @@
         <v>244</v>
       </c>
       <c r="C245" s="11" t="n">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="246" ht="22" customHeight="true" outlineLevel="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" ht="11" customHeight="true" outlineLevel="3">
       <c r="B246" s="15" t="s">
         <v>245</v>
       </c>
       <c r="C246" s="11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="247" ht="22" customHeight="true" outlineLevel="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="247" ht="11" customHeight="true" outlineLevel="3">
       <c r="B247" s="15" t="s">
         <v>246</v>
       </c>
       <c r="C247" s="11" t="n">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" ht="11" customHeight="true" outlineLevel="3">
@@ -3325,7 +3313,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="11" t="n">
-        <v>323</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" ht="11" customHeight="true" outlineLevel="3">
@@ -3333,7 +3321,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="11" t="n">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" ht="11" customHeight="true" outlineLevel="3">
@@ -3341,7 +3329,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="11" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251" ht="11" customHeight="true" outlineLevel="3">
@@ -3349,7 +3337,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="11" t="n">
-        <v>239</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" ht="11" customHeight="true" outlineLevel="3">
@@ -3357,7 +3345,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="11" t="n">
-        <v>54</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" ht="11" customHeight="true" outlineLevel="3">
@@ -3365,7 +3353,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="11" t="n">
-        <v>765</v>
+        <v>37</v>
       </c>
     </row>
     <row r="254" ht="11" customHeight="true" outlineLevel="3">
@@ -3373,7 +3361,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="11" t="n">
-        <v>220</v>
+        <v>644</v>
       </c>
     </row>
     <row r="255" ht="11" customHeight="true" outlineLevel="3">
@@ -3381,7 +3369,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="11" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" ht="11" customHeight="true" outlineLevel="3">
@@ -3389,7 +3377,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="11" t="n">
-        <v>663</v>
+        <v>222</v>
       </c>
     </row>
     <row r="257" ht="11" customHeight="true" outlineLevel="3">
@@ -3397,15 +3385,15 @@
         <v>256</v>
       </c>
       <c r="C257" s="11" t="n">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="258" ht="11" customHeight="true" outlineLevel="3">
       <c r="B258" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="11" t="n">
-        <v>227</v>
+      <c r="C258" s="16" t="n">
+        <v>3133</v>
       </c>
     </row>
     <row r="259" ht="11" customHeight="true" outlineLevel="3">
@@ -3413,23 +3401,23 @@
         <v>258</v>
       </c>
       <c r="C259" s="11" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="260" ht="11" customHeight="true" outlineLevel="3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="260" ht="22" customHeight="true" outlineLevel="3">
       <c r="B260" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="16" t="n">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="261" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C260" s="11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="261" ht="22" customHeight="true" outlineLevel="3">
       <c r="B261" s="15" t="s">
         <v>260</v>
       </c>
       <c r="C261" s="11" t="n">
-        <v>425</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" ht="11" customHeight="true" outlineLevel="3">
@@ -3437,23 +3425,23 @@
         <v>261</v>
       </c>
       <c r="C262" s="11" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="263" ht="22" customHeight="true" outlineLevel="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" ht="11" customHeight="true" outlineLevel="3">
       <c r="B263" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C263" s="11" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="264" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B264" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="264" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B264" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="11" t="n">
-        <v>4</v>
+      <c r="C264" s="12" t="n">
+        <v>15887</v>
       </c>
     </row>
     <row r="265" ht="11" customHeight="true" outlineLevel="3">
@@ -3461,7 +3449,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="11" t="n">
-        <v>15</v>
+        <v>655</v>
       </c>
     </row>
     <row r="266" ht="11" customHeight="true" outlineLevel="3">
@@ -3469,15 +3457,15 @@
         <v>265</v>
       </c>
       <c r="C266" s="11" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="267" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B267" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B267" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="12" t="n">
-        <v>16237</v>
+      <c r="C267" s="16" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="268" ht="11" customHeight="true" outlineLevel="3">
@@ -3485,7 +3473,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="11" t="n">
-        <v>680</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" ht="11" customHeight="true" outlineLevel="3">
@@ -3493,15 +3481,15 @@
         <v>268</v>
       </c>
       <c r="C269" s="11" t="n">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270" ht="11" customHeight="true" outlineLevel="3">
       <c r="B270" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="16" t="n">
-        <v>1518</v>
+      <c r="C270" s="11" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="271" ht="11" customHeight="true" outlineLevel="3">
@@ -3509,7 +3497,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="11" t="n">
-        <v>297</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" ht="11" customHeight="true" outlineLevel="3">
@@ -3517,7 +3505,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="11" t="n">
-        <v>350</v>
+        <v>431</v>
       </c>
     </row>
     <row r="273" ht="11" customHeight="true" outlineLevel="3">
@@ -3525,7 +3513,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="11" t="n">
-        <v>368</v>
+        <v>755</v>
       </c>
     </row>
     <row r="274" ht="11" customHeight="true" outlineLevel="3">
@@ -3533,7 +3521,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="11" t="n">
-        <v>374</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" ht="11" customHeight="true" outlineLevel="3">
@@ -3541,7 +3529,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="11" t="n">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="276" ht="11" customHeight="true" outlineLevel="3">
@@ -3549,7 +3537,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="11" t="n">
-        <v>773</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" ht="11" customHeight="true" outlineLevel="3">
@@ -3557,7 +3545,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="11" t="n">
-        <v>633</v>
+        <v>681</v>
       </c>
     </row>
     <row r="278" ht="11" customHeight="true" outlineLevel="3">
@@ -3565,23 +3553,23 @@
         <v>277</v>
       </c>
       <c r="C278" s="11" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="279" ht="11" customHeight="true" outlineLevel="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="279" ht="22" customHeight="true" outlineLevel="3">
       <c r="B279" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C279" s="11" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="280" ht="11" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" ht="22" customHeight="true" outlineLevel="3">
       <c r="B280" s="15" t="s">
         <v>279</v>
       </c>
       <c r="C280" s="11" t="n">
-        <v>698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" ht="11" customHeight="true" outlineLevel="3">
@@ -3589,31 +3577,31 @@
         <v>280</v>
       </c>
       <c r="C281" s="11" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="282" ht="22" customHeight="true" outlineLevel="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" ht="11" customHeight="true" outlineLevel="3">
       <c r="B282" s="15" t="s">
         <v>281</v>
       </c>
       <c r="C282" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" ht="22" customHeight="true" outlineLevel="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="283" ht="11" customHeight="true" outlineLevel="3">
       <c r="B283" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C283" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" ht="11" customHeight="true" outlineLevel="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="284" ht="22" customHeight="true" outlineLevel="3">
       <c r="B284" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C284" s="11" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" ht="11" customHeight="true" outlineLevel="3">
@@ -3621,23 +3609,23 @@
         <v>284</v>
       </c>
       <c r="C285" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="286" ht="11" customHeight="true" outlineLevel="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="286" ht="22" customHeight="true" outlineLevel="3">
       <c r="B286" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C286" s="11" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="287" ht="22" customHeight="true" outlineLevel="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" ht="11" customHeight="true" outlineLevel="3">
       <c r="B287" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="11" t="n">
-        <v>1</v>
+      <c r="C287" s="16" t="n">
+        <v>5002</v>
       </c>
     </row>
     <row r="288" ht="11" customHeight="true" outlineLevel="3">
@@ -3645,23 +3633,23 @@
         <v>287</v>
       </c>
       <c r="C288" s="11" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="289" ht="22" customHeight="true" outlineLevel="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" ht="11" customHeight="true" outlineLevel="3">
       <c r="B289" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="11" t="n">
-        <v>1</v>
+      <c r="C289" s="16" t="n">
+        <v>1910</v>
       </c>
     </row>
     <row r="290" ht="11" customHeight="true" outlineLevel="3">
       <c r="B290" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="16" t="n">
-        <v>5118</v>
+      <c r="C290" s="11" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="291" ht="11" customHeight="true" outlineLevel="3">
@@ -3669,15 +3657,15 @@
         <v>290</v>
       </c>
       <c r="C291" s="11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B292" s="15" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="292" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B292" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="16" t="n">
-        <v>1958</v>
+      <c r="C292" s="17" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="293" ht="11" customHeight="true" outlineLevel="3">
@@ -3685,7 +3673,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="11" t="n">
-        <v>361</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" ht="11" customHeight="true" outlineLevel="3">
@@ -3693,15 +3681,15 @@
         <v>293</v>
       </c>
       <c r="C294" s="11" t="n">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="295" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B295" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" ht="11" customHeight="true" outlineLevel="3">
+      <c r="B295" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="17" t="n">
-        <v>200</v>
+      <c r="C295" s="11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="296" ht="11" customHeight="true" outlineLevel="3">
@@ -3709,15 +3697,15 @@
         <v>295</v>
       </c>
       <c r="C296" s="11" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="297" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B297" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="297" ht="11" customHeight="true" outlineLevel="2">
+      <c r="B297" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="11" t="n">
-        <v>31</v>
+      <c r="C297" s="12" t="n">
+        <v>126190</v>
       </c>
     </row>
     <row r="298" ht="11" customHeight="true" outlineLevel="3">
@@ -3725,7 +3713,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="11" t="n">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="299" ht="11" customHeight="true" outlineLevel="3">
@@ -3733,71 +3721,71 @@
         <v>298</v>
       </c>
       <c r="C299" s="11" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="300" ht="11" customHeight="true" outlineLevel="2">
-      <c r="B300" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" ht="22" customHeight="true" outlineLevel="3">
+      <c r="B300" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="12" t="n">
-        <v>123697</v>
-      </c>
-    </row>
-    <row r="301" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C300" s="11" t="n">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="301" ht="22" customHeight="true" outlineLevel="3">
       <c r="B301" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C301" s="11" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="302" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C301" s="16" t="n">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="302" ht="22" customHeight="true" outlineLevel="3">
       <c r="B302" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C302" s="11" t="n">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="303" ht="22" customHeight="true" outlineLevel="3">
       <c r="B303" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C303" s="11" t="n">
-        <v>567</v>
+      <c r="C303" s="16" t="n">
+        <v>4499</v>
       </c>
     </row>
     <row r="304" ht="22" customHeight="true" outlineLevel="3">
       <c r="B304" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C304" s="16" t="n">
-        <v>4106</v>
-      </c>
-    </row>
-    <row r="305" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C304" s="11" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="305" ht="11" customHeight="true" outlineLevel="3">
       <c r="B305" s="15" t="s">
         <v>304</v>
       </c>
       <c r="C305" s="11" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="306" ht="22" customHeight="true" outlineLevel="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="306" ht="11" customHeight="true" outlineLevel="3">
       <c r="B306" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C306" s="16" t="n">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="307" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C306" s="11" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="307" ht="11" customHeight="true" outlineLevel="3">
       <c r="B307" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C307" s="11" t="n">
-        <v>64</v>
+      <c r="C307" s="16" t="n">
+        <v>1131</v>
       </c>
     </row>
     <row r="308" ht="11" customHeight="true" outlineLevel="3">
@@ -3805,7 +3793,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="11" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" ht="11" customHeight="true" outlineLevel="3">
@@ -3813,39 +3801,39 @@
         <v>308</v>
       </c>
       <c r="C309" s="11" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="310" ht="11" customHeight="true" outlineLevel="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="310" ht="22" customHeight="true" outlineLevel="3">
       <c r="B310" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C310" s="16" t="n">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="311" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C310" s="11" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="311" ht="22" customHeight="true" outlineLevel="3">
       <c r="B311" s="15" t="s">
         <v>310</v>
       </c>
       <c r="C311" s="11" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="312" ht="11" customHeight="true" outlineLevel="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="312" ht="22" customHeight="true" outlineLevel="3">
       <c r="B312" s="15" t="s">
         <v>311</v>
       </c>
       <c r="C312" s="11" t="n">
-        <v>110</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" ht="22" customHeight="true" outlineLevel="3">
       <c r="B313" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C313" s="11" t="n">
-        <v>50</v>
+      <c r="C313" s="16" t="n">
+        <v>11532</v>
       </c>
     </row>
     <row r="314" ht="22" customHeight="true" outlineLevel="3">
@@ -3853,7 +3841,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="11" t="n">
-        <v>208</v>
+        <v>651</v>
       </c>
     </row>
     <row r="315" ht="22" customHeight="true" outlineLevel="3">
@@ -3861,15 +3849,15 @@
         <v>314</v>
       </c>
       <c r="C315" s="11" t="n">
-        <v>586</v>
+        <v>259</v>
       </c>
     </row>
     <row r="316" ht="22" customHeight="true" outlineLevel="3">
       <c r="B316" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C316" s="16" t="n">
-        <v>11602</v>
+      <c r="C316" s="11" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="317" ht="22" customHeight="true" outlineLevel="3">
@@ -3877,15 +3865,15 @@
         <v>316</v>
       </c>
       <c r="C317" s="11" t="n">
-        <v>669</v>
+        <v>199</v>
       </c>
     </row>
     <row r="318" ht="22" customHeight="true" outlineLevel="3">
       <c r="B318" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C318" s="11" t="n">
-        <v>120</v>
+      <c r="C318" s="16" t="n">
+        <v>10273</v>
       </c>
     </row>
     <row r="319" ht="22" customHeight="true" outlineLevel="3">
@@ -3893,7 +3881,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="11" t="n">
-        <v>324</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" ht="22" customHeight="true" outlineLevel="3">
@@ -3901,7 +3889,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="11" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321" ht="22" customHeight="true" outlineLevel="3">
@@ -3909,7 +3897,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="16" t="n">
-        <v>10298</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="322" ht="22" customHeight="true" outlineLevel="3">
@@ -3917,31 +3905,31 @@
         <v>321</v>
       </c>
       <c r="C322" s="11" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="323" ht="22" customHeight="true" outlineLevel="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="323" ht="11" customHeight="true" outlineLevel="3">
       <c r="B323" s="15" t="s">
         <v>322</v>
       </c>
       <c r="C323" s="11" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="324" ht="22" customHeight="true" outlineLevel="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="324" ht="11" customHeight="true" outlineLevel="3">
       <c r="B324" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="16" t="n">
-        <v>3613</v>
-      </c>
-    </row>
-    <row r="325" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C324" s="11" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="325" ht="11" customHeight="true" outlineLevel="3">
       <c r="B325" s="15" t="s">
         <v>324</v>
       </c>
       <c r="C325" s="11" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="326" ht="11" customHeight="true" outlineLevel="3">
@@ -3949,7 +3937,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="11" t="n">
-        <v>192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" ht="11" customHeight="true" outlineLevel="3">
@@ -3957,7 +3945,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="11" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" ht="11" customHeight="true" outlineLevel="3">
@@ -3965,7 +3953,7 @@
         <v>327</v>
       </c>
       <c r="C328" s="11" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" ht="11" customHeight="true" outlineLevel="3">
@@ -3973,39 +3961,39 @@
         <v>328</v>
       </c>
       <c r="C329" s="11" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" ht="11" customHeight="true" outlineLevel="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" ht="22" customHeight="true" outlineLevel="3">
       <c r="B330" s="15" t="s">
         <v>329</v>
       </c>
       <c r="C330" s="11" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="331" ht="11" customHeight="true" outlineLevel="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="331" ht="22" customHeight="true" outlineLevel="3">
       <c r="B331" s="15" t="s">
         <v>330</v>
       </c>
       <c r="C331" s="11" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="332" ht="11" customHeight="true" outlineLevel="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="332" ht="22" customHeight="true" outlineLevel="3">
       <c r="B332" s="15" t="s">
         <v>331</v>
       </c>
       <c r="C332" s="11" t="n">
-        <v>49</v>
+        <v>268</v>
       </c>
     </row>
     <row r="333" ht="22" customHeight="true" outlineLevel="3">
       <c r="B333" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="11" t="n">
-        <v>567</v>
+      <c r="C333" s="16" t="n">
+        <v>1248</v>
       </c>
     </row>
     <row r="334" ht="22" customHeight="true" outlineLevel="3">
@@ -4013,31 +4001,31 @@
         <v>333</v>
       </c>
       <c r="C334" s="11" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="335" ht="22" customHeight="true" outlineLevel="3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="335" ht="11" customHeight="true" outlineLevel="3">
       <c r="B335" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C335" s="11" t="n">
-        <v>271</v>
+        <v>839</v>
       </c>
     </row>
     <row r="336" ht="22" customHeight="true" outlineLevel="3">
       <c r="B336" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="16" t="n">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="337" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C336" s="11" t="n">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="337" ht="11" customHeight="true" outlineLevel="3">
       <c r="B337" s="15" t="s">
         <v>336</v>
       </c>
       <c r="C337" s="11" t="n">
-        <v>994</v>
+        <v>780</v>
       </c>
     </row>
     <row r="338" ht="11" customHeight="true" outlineLevel="3">
@@ -4045,23 +4033,23 @@
         <v>337</v>
       </c>
       <c r="C338" s="11" t="n">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="339" ht="22" customHeight="true" outlineLevel="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" ht="11" customHeight="true" outlineLevel="3">
       <c r="B339" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C339" s="11" t="n">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="340" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C339" s="16" t="n">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="340" ht="22" customHeight="true" outlineLevel="3">
       <c r="B340" s="15" t="s">
         <v>339</v>
       </c>
       <c r="C340" s="11" t="n">
-        <v>780</v>
+        <v>690</v>
       </c>
     </row>
     <row r="341" ht="11" customHeight="true" outlineLevel="3">
@@ -4069,23 +4057,23 @@
         <v>340</v>
       </c>
       <c r="C341" s="11" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="342" ht="11" customHeight="true" outlineLevel="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="342" ht="22" customHeight="true" outlineLevel="3">
       <c r="B342" s="15" t="s">
         <v>341</v>
       </c>
       <c r="C342" s="16" t="n">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="343" ht="22" customHeight="true" outlineLevel="3">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="343" ht="11" customHeight="true" outlineLevel="3">
       <c r="B343" s="15" t="s">
         <v>342</v>
       </c>
       <c r="C343" s="11" t="n">
-        <v>715</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" ht="11" customHeight="true" outlineLevel="3">
@@ -4093,15 +4081,15 @@
         <v>343</v>
       </c>
       <c r="C344" s="11" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="345" ht="22" customHeight="true" outlineLevel="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" ht="11" customHeight="true" outlineLevel="3">
       <c r="B345" s="15" t="s">
         <v>344</v>
       </c>
       <c r="C345" s="16" t="n">
-        <v>1806</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="346" ht="11" customHeight="true" outlineLevel="3">
@@ -4109,23 +4097,23 @@
         <v>345</v>
       </c>
       <c r="C346" s="11" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="347" ht="11" customHeight="true" outlineLevel="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="347" ht="22" customHeight="true" outlineLevel="3">
       <c r="B347" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="11" t="n">
-        <v>8</v>
+      <c r="C347" s="16" t="n">
+        <v>1878</v>
       </c>
     </row>
     <row r="348" ht="11" customHeight="true" outlineLevel="3">
       <c r="B348" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C348" s="11" t="n">
-        <v>38</v>
+      <c r="C348" s="16" t="n">
+        <v>2470</v>
       </c>
     </row>
     <row r="349" ht="11" customHeight="true" outlineLevel="3">
@@ -4133,55 +4121,55 @@
         <v>348</v>
       </c>
       <c r="C349" s="11" t="n">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="350" ht="11" customHeight="true" outlineLevel="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" ht="22" customHeight="true" outlineLevel="3">
       <c r="B350" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="11" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="351" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C350" s="16" t="n">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="351" ht="11" customHeight="true" outlineLevel="3">
       <c r="B351" s="15" t="s">
         <v>350</v>
       </c>
       <c r="C351" s="16" t="n">
-        <v>1938</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="352" ht="11" customHeight="true" outlineLevel="3">
       <c r="B352" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="16" t="n">
-        <v>1775</v>
+      <c r="C352" s="11" t="n">
+        <v>618</v>
       </c>
     </row>
     <row r="353" ht="11" customHeight="true" outlineLevel="3">
       <c r="B353" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="11" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="354" ht="22" customHeight="true" outlineLevel="3">
+      <c r="C353" s="16" t="n">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="354" ht="11" customHeight="true" outlineLevel="3">
       <c r="B354" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C354" s="16" t="n">
-        <v>2002</v>
+      <c r="C354" s="11" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="355" ht="11" customHeight="true" outlineLevel="3">
       <c r="B355" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C355" s="16" t="n">
-        <v>1234</v>
+      <c r="C355" s="11" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="356" ht="11" customHeight="true" outlineLevel="3">
@@ -4189,7 +4177,7 @@
         <v>355</v>
       </c>
       <c r="C356" s="11" t="n">
-        <v>733</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" ht="11" customHeight="true" outlineLevel="3">
@@ -4197,7 +4185,7 @@
         <v>356</v>
       </c>
       <c r="C357" s="16" t="n">
-        <v>4368</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="358" ht="11" customHeight="true" outlineLevel="3">
@@ -4205,23 +4193,23 @@
         <v>357</v>
       </c>
       <c r="C358" s="11" t="n">
-        <v>15</v>
+        <v>424</v>
       </c>
     </row>
     <row r="359" ht="11" customHeight="true" outlineLevel="3">
       <c r="B359" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C359" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="360" ht="11" customHeight="true" outlineLevel="3">
+      <c r="C359" s="16" t="n">
+        <v>19631</v>
+      </c>
+    </row>
+    <row r="360" ht="22" customHeight="true" outlineLevel="3">
       <c r="B360" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="C360" s="11" t="n">
-        <v>15</v>
+      <c r="C360" s="16" t="n">
+        <v>7896</v>
       </c>
     </row>
     <row r="361" ht="11" customHeight="true" outlineLevel="3">
@@ -4229,47 +4217,15 @@
         <v>360</v>
       </c>
       <c r="C361" s="16" t="n">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="362" ht="11" customHeight="true" outlineLevel="3">
+        <v>21992</v>
+      </c>
+    </row>
+    <row r="362" ht="22" customHeight="true" outlineLevel="3">
       <c r="B362" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C362" s="11" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="363" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B363" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C363" s="16" t="n">
-        <v>19631</v>
-      </c>
-    </row>
-    <row r="364" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B364" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C364" s="16" t="n">
-        <v>8064</v>
-      </c>
-    </row>
-    <row r="365" ht="11" customHeight="true" outlineLevel="3">
-      <c r="B365" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C365" s="16" t="n">
-        <v>21992</v>
-      </c>
-    </row>
-    <row r="366" ht="22" customHeight="true" outlineLevel="3">
-      <c r="B366" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C366" s="16" t="n">
-        <v>8448</v>
+      <c r="C362" s="16" t="n">
+        <v>8352</v>
       </c>
     </row>
   </sheetData>
